--- a/thresholds/AL/islamic-studies/islamic-studies-thresholds.xlsx
+++ b/thresholds/AL/islamic-studies/islamic-studies-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,30 +518,30 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B 32,42,88</t>
+          <t>AY (AY2) 12,22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="F3" t="n">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -553,30 +553,30 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>C 32,42,97</t>
+          <t>B 32,42,88</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D4" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E4" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F4" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G4" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -588,26 +588,26 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AY (AY1) 12,22,32,42</t>
+          <t>C 32,42,97</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D5" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E5" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -616,49 +616,49 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>B 32,42,88</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="E6" t="n">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="F6" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>C 32,42,97</t>
+          <t>AY (AY1) 12,22,32,42</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -681,7 +681,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -693,30 +693,30 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>DY (DY1) 12,22,32,42</t>
+          <t>AY (AY2) 12,22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="F8" t="n">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="G8" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -728,7 +728,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>DY (DY2) 32,42,88</t>
+          <t>B 32,42,88</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -763,7 +763,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DY (DY3) 32,42,97</t>
+          <t>C 32,42,97</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -798,42 +798,42 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AY (AY1) 12,22,32,42</t>
+          <t>DY (DY1) 12,22,32,42</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" t="n">
         <v>95</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>B 32,42,88</t>
+          <t>DY (DY2) 32,42,88</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -849,42 +849,42 @@
         <v>133</v>
       </c>
       <c r="F12" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G12" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AY (AY1) 12,22,32,42</t>
+          <t>DY (DY3) 32,42,97</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>200</v>
       </c>
       <c r="C13" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D13" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" t="n">
         <v>95</v>
@@ -896,77 +896,77 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>B 32,42,88</t>
+          <t>DY (DY4) 12,22</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E14" t="n">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="F14" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="G14" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AY (AY1) 12,22,32,42</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="E15" t="n">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="F15" t="n">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="G15" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
@@ -1000,6 +1000,461 @@
         </is>
       </c>
       <c r="I16" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AY (AY2) 12,22</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>77</v>
+      </c>
+      <c r="E17" t="n">
+        <v>67</v>
+      </c>
+      <c r="F17" t="n">
+        <v>58</v>
+      </c>
+      <c r="G17" t="n">
+        <v>49</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>B 32,42,88</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>200</v>
+      </c>
+      <c r="C18" t="n">
+        <v>173</v>
+      </c>
+      <c r="D18" t="n">
+        <v>153</v>
+      </c>
+      <c r="E18" t="n">
+        <v>133</v>
+      </c>
+      <c r="F18" t="n">
+        <v>114</v>
+      </c>
+      <c r="G18" t="n">
+        <v>96</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>SY 12,22</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>77</v>
+      </c>
+      <c r="E19" t="n">
+        <v>67</v>
+      </c>
+      <c r="F19" t="n">
+        <v>58</v>
+      </c>
+      <c r="G19" t="n">
+        <v>49</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>AY (AY1) 12,22,32,42</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>200</v>
+      </c>
+      <c r="C20" t="n">
+        <v>173</v>
+      </c>
+      <c r="D20" t="n">
+        <v>153</v>
+      </c>
+      <c r="E20" t="n">
+        <v>133</v>
+      </c>
+      <c r="F20" t="n">
+        <v>114</v>
+      </c>
+      <c r="G20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>AY (AY2) 12,22</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>77</v>
+      </c>
+      <c r="E21" t="n">
+        <v>67</v>
+      </c>
+      <c r="F21" t="n">
+        <v>58</v>
+      </c>
+      <c r="G21" t="n">
+        <v>49</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>B 32,42,88</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>200</v>
+      </c>
+      <c r="C22" t="n">
+        <v>175</v>
+      </c>
+      <c r="D22" t="n">
+        <v>155</v>
+      </c>
+      <c r="E22" t="n">
+        <v>135</v>
+      </c>
+      <c r="F22" t="n">
+        <v>116</v>
+      </c>
+      <c r="G22" t="n">
+        <v>97</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>SY 12,22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>77</v>
+      </c>
+      <c r="E23" t="n">
+        <v>67</v>
+      </c>
+      <c r="F23" t="n">
+        <v>58</v>
+      </c>
+      <c r="G23" t="n">
+        <v>49</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>AY (AY1) 12,22,32,42</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>200</v>
+      </c>
+      <c r="C24" t="n">
+        <v>173</v>
+      </c>
+      <c r="D24" t="n">
+        <v>153</v>
+      </c>
+      <c r="E24" t="n">
+        <v>133</v>
+      </c>
+      <c r="F24" t="n">
+        <v>114</v>
+      </c>
+      <c r="G24" t="n">
+        <v>95</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>AY (AY2) 12,22</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>77</v>
+      </c>
+      <c r="E25" t="n">
+        <v>67</v>
+      </c>
+      <c r="F25" t="n">
+        <v>58</v>
+      </c>
+      <c r="G25" t="n">
+        <v>49</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>SY 12,22</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>100</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>77</v>
+      </c>
+      <c r="E26" t="n">
+        <v>67</v>
+      </c>
+      <c r="F26" t="n">
+        <v>58</v>
+      </c>
+      <c r="G26" t="n">
+        <v>49</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>AY (AY1) 12,22,32,42</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>200</v>
+      </c>
+      <c r="C27" t="n">
+        <v>173</v>
+      </c>
+      <c r="D27" t="n">
+        <v>153</v>
+      </c>
+      <c r="E27" t="n">
+        <v>133</v>
+      </c>
+      <c r="F27" t="n">
+        <v>114</v>
+      </c>
+      <c r="G27" t="n">
+        <v>95</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>AY (AY2) 12,22</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>100</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>77</v>
+      </c>
+      <c r="E28" t="n">
+        <v>67</v>
+      </c>
+      <c r="F28" t="n">
+        <v>58</v>
+      </c>
+      <c r="G28" t="n">
+        <v>49</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>SY 12,22</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>100</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>77</v>
+      </c>
+      <c r="E29" t="n">
+        <v>67</v>
+      </c>
+      <c r="F29" t="n">
+        <v>58</v>
+      </c>
+      <c r="G29" t="n">
+        <v>49</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
